--- a/frontend/www/current/application/myEurope/excel2json/project_list.xlsx
+++ b/frontend/www/current/application/myEurope/excel2json/project_list.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4454" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4454" uniqueCount="1836">
   <si>
     <t>Communauté de Communes du Guillestrois</t>
   </si>
@@ -5779,6 +5779,27 @@
   </si>
   <si>
     <t>cp</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>environnement</t>
+  </si>
+  <si>
+    <t>entreprise</t>
+  </si>
+  <si>
+    <t>santé</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
+    <t>alcotra</t>
   </si>
 </sst>
 </file>
@@ -6364,10 +6385,10 @@
   <dimension ref="A1:N451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D294" sqref="D294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2"/>
@@ -6439,10 +6460,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>631</v>
@@ -6477,10 +6498,10 @@
         <v>78</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>631</v>
@@ -6513,10 +6534,10 @@
         <v>429</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>570</v>
@@ -6551,10 +6572,10 @@
         <v>135</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>632</v>
@@ -6590,10 +6611,10 @@
         <v>Cultura des Hautes terres</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>620</v>
@@ -6633,10 +6654,10 @@
         <v>Culture des Hautes terres</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>620</v>
@@ -6678,10 +6699,10 @@
         <v>Culture et identité marittime-mercantour</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>542</v>
@@ -6723,10 +6744,10 @@
         <v>Culture et identité marittime-mercantour</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>542</v>
@@ -6762,10 +6783,10 @@
         <v>Culture et identité marittime-mercantour</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>542</v>
@@ -6796,10 +6817,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>633</v>
@@ -6834,10 +6855,10 @@
         <v>1014</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>1534</v>
@@ -6879,10 +6900,10 @@
         <v>Itinérance culturelle</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>609</v>
@@ -6918,10 +6939,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>607</v>
@@ -6959,10 +6980,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>607</v>
@@ -7002,10 +7023,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>607</v>
@@ -7041,10 +7062,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>607</v>
@@ -7084,10 +7105,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>607</v>
@@ -7123,10 +7144,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>607</v>
@@ -7162,10 +7183,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>607</v>
@@ -7199,10 +7220,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>607</v>
@@ -7240,10 +7261,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>607</v>
@@ -7283,10 +7304,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>607</v>
@@ -7322,10 +7343,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>607</v>
@@ -7361,10 +7382,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>607</v>
@@ -7400,10 +7421,10 @@
         <v>Itinérance patrimoniale</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>607</v>
@@ -7436,10 +7457,10 @@
         <v>300</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>548</v>
@@ -7474,10 +7495,10 @@
         <v>50</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>634</v>
@@ -7512,10 +7533,10 @@
         <v>305</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>550</v>
@@ -7539,7 +7560,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="66">
+    <row r="30" spans="1:14" ht="52.8">
       <c r="A30" s="7" t="s">
         <v>367</v>
       </c>
@@ -7551,10 +7572,10 @@
         <v>Plan de coordination et de communication</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>606</v>
@@ -7578,7 +7599,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="52.8">
+    <row r="31" spans="1:14" ht="66">
       <c r="A31" s="7" t="s">
         <v>380</v>
       </c>
@@ -7590,10 +7611,10 @@
         <v>Sites phares</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>613</v>
@@ -7635,10 +7656,10 @@
         <v>Sites phares</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>613</v>
@@ -7674,10 +7695,10 @@
         <v>Sites phares</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>613</v>
@@ -7701,7 +7722,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="52.8">
+    <row r="34" spans="1:14" ht="66">
       <c r="A34" s="7" t="s">
         <v>380</v>
       </c>
@@ -7713,10 +7734,10 @@
         <v>Sites phares</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>613</v>
@@ -7744,7 +7765,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="52.8">
+    <row r="35" spans="1:14" ht="66">
       <c r="A35" s="7" t="s">
         <v>380</v>
       </c>
@@ -7756,10 +7777,10 @@
         <v>Sites phares</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>613</v>
@@ -7787,7 +7808,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="52.8">
+    <row r="36" spans="1:14" ht="66">
       <c r="A36" s="7" t="s">
         <v>380</v>
       </c>
@@ -7799,10 +7820,10 @@
         <v>Sites phares</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>613</v>
@@ -7838,10 +7859,10 @@
         <v>Sites phares</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>613</v>
@@ -7869,7 +7890,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="52.8">
+    <row r="38" spans="1:14" ht="66">
       <c r="A38" s="7" t="s">
         <v>380</v>
       </c>
@@ -7881,10 +7902,10 @@
         <v>Sites phares</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>613</v>
@@ -7908,7 +7929,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="52.8">
+    <row r="39" spans="1:14" ht="66">
       <c r="A39" s="7" t="s">
         <v>380</v>
       </c>
@@ -7920,10 +7941,10 @@
         <v>Sites phares</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>613</v>
@@ -7958,10 +7979,10 @@
         <v>421</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>552</v>
@@ -8002,10 +8023,10 @@
         <v>22</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>635</v>
@@ -8040,10 +8061,10 @@
         <v>22</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>635</v>
@@ -8065,7 +8086,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="105.6">
+    <row r="43" spans="1:14" ht="118.8">
       <c r="A43" s="7">
         <v>254</v>
       </c>
@@ -8076,10 +8097,10 @@
         <v>22</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>635</v>
@@ -8112,10 +8133,10 @@
         <v>1568</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>571</v>
@@ -8150,10 +8171,10 @@
         <v>1568</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>571</v>
@@ -8186,10 +8207,10 @@
         <v>1564</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>838</v>
@@ -8220,10 +8241,10 @@
         <v>1480</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>1481</v>
@@ -8254,10 +8275,10 @@
         <v>1476</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>838</v>
@@ -8288,10 +8309,10 @@
         <v>861</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>863</v>
@@ -8322,10 +8343,10 @@
         <v>858</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>860</v>
@@ -8356,10 +8377,10 @@
         <v>898</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>1537</v>
@@ -8390,10 +8411,10 @@
         <v>898</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>1537</v>
@@ -8422,10 +8443,10 @@
         <v>898</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>1538</v>
@@ -8454,10 +8475,10 @@
         <v>898</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>1538</v>
@@ -8486,10 +8507,10 @@
         <v>898</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>1537</v>
@@ -8507,7 +8528,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:14" ht="79.2">
+    <row r="56" spans="1:14" ht="92.4">
       <c r="A56" s="7">
         <v>59</v>
       </c>
@@ -8518,10 +8539,10 @@
         <v>892</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>893</v>
@@ -8550,10 +8571,10 @@
         <v>831</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>834</v>
@@ -8584,10 +8605,10 @@
         <v>831</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>834</v>
@@ -8616,10 +8637,10 @@
         <v>887</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>1536</v>
@@ -8650,10 +8671,10 @@
         <v>1487</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>1488</v>
@@ -8673,7 +8694,7 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="1:14" ht="132">
+    <row r="61" spans="1:14" ht="145.19999999999999">
       <c r="A61" s="7">
         <v>10</v>
       </c>
@@ -8684,10 +8705,10 @@
         <v>823</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>827</v>
@@ -8707,7 +8728,7 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="1:14" ht="132">
+    <row r="62" spans="1:14" ht="145.19999999999999">
       <c r="A62" s="7">
         <v>10</v>
       </c>
@@ -8718,10 +8739,10 @@
         <v>823</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>827</v>
@@ -8752,10 +8773,10 @@
         <v>1412</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>1543</v>
@@ -8786,10 +8807,10 @@
         <v>873</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>1550</v>
@@ -8820,10 +8841,10 @@
         <v>873</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>1550</v>
@@ -8852,10 +8873,10 @@
         <v>873</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>1550</v>
@@ -8884,10 +8905,10 @@
         <v>873</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>157</v>
+        <v>1829</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>1550</v>
@@ -8916,10 +8937,10 @@
         <v>1013</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>1017</v>
@@ -8954,10 +8975,10 @@
         <v>18</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>636</v>
@@ -8992,10 +9013,10 @@
         <v>18</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>636</v>
@@ -9028,10 +9049,10 @@
         <v>18</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>636</v>
@@ -9064,10 +9085,10 @@
         <v>18</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>636</v>
@@ -9100,10 +9121,10 @@
         <v>18</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>636</v>
@@ -9136,10 +9157,10 @@
         <v>327</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>1090</v>
@@ -9174,10 +9195,10 @@
         <v>327</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>1090</v>
@@ -9211,10 +9232,10 @@
         <v>Itinérance autour des produits du terroir, des goûts et des saveurs</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>610</v>
@@ -9256,10 +9277,10 @@
         <v>Itinérance autour des produits du terroir, des goûts et des saveurs</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>610</v>
@@ -9287,7 +9308,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="118.8">
+    <row r="78" spans="1:14" ht="105.6">
       <c r="A78" s="7" t="s">
         <v>375</v>
       </c>
@@ -9299,10 +9320,10 @@
         <v>Itinérance autour des produits du terroir, des goûts et des saveurs</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>610</v>
@@ -9341,10 +9362,10 @@
         <v>584</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>585</v>
@@ -9380,10 +9401,10 @@
         <v>Le Montagne Produit Qualità</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>621</v>
@@ -9423,10 +9444,10 @@
         <v>Le Montagne Produit Qualità</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>621</v>
@@ -9454,7 +9475,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="118.8">
+    <row r="82" spans="1:14" ht="105.6">
       <c r="A82" s="7">
         <v>235</v>
       </c>
@@ -9465,10 +9486,10 @@
         <v>110</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>115</v>
@@ -9509,10 +9530,10 @@
         <v>110</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>115</v>
@@ -9545,10 +9566,10 @@
         <v>110</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>115</v>
@@ -9582,10 +9603,10 @@
         <v>Plan de coordination et de communication</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>601</v>
@@ -9609,7 +9630,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
     </row>
-    <row r="86" spans="1:14" ht="118.8">
+    <row r="86" spans="1:14" ht="105.6">
       <c r="A86" s="7">
         <v>30</v>
       </c>
@@ -9620,10 +9641,10 @@
         <v>306</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>553</v>
@@ -9664,10 +9685,10 @@
         <v>306</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>553</v>
@@ -9707,10 +9728,10 @@
         <v>Saveurs et Produits</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>616</v>
@@ -9752,10 +9773,10 @@
         <v>Saveurs et Produits</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>616</v>
@@ -9795,10 +9816,10 @@
         <v>Saveurs et Produits</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>616</v>
@@ -9830,10 +9851,10 @@
         <v>Saveurs et Produits</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>616</v>
@@ -9865,10 +9886,10 @@
         <v>Savoir Legno</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>622</v>
@@ -9903,10 +9924,10 @@
         <v>398</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>622</v>
@@ -9928,7 +9949,7 @@
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
     </row>
-    <row r="94" spans="1:14" ht="198">
+    <row r="94" spans="1:14" ht="184.8">
       <c r="A94" s="7" t="s">
         <v>364</v>
       </c>
@@ -9940,10 +9961,10 @@
         <v>TourvalCafé</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>604</v>
@@ -9984,10 +10005,10 @@
         <v>336</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>590</v>
@@ -10022,10 +10043,10 @@
         <v>336</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>590</v>
@@ -10059,10 +10080,10 @@
         <v>Valorisation des productions traditionnelles</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>603</v>
@@ -10098,10 +10119,10 @@
         <v>Valorisation des productions traditionnelles</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>603</v>
@@ -10135,10 +10156,10 @@
         <v>Valorisation des productions traditionnelles</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>1084</v>
@@ -10171,10 +10192,10 @@
         <v>1005</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>564</v>
@@ -10209,10 +10230,10 @@
         <v>1005</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>564</v>
@@ -10245,10 +10266,10 @@
         <v>1005</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>564</v>
@@ -10281,10 +10302,10 @@
         <v>1528</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F103" s="13" t="s">
         <v>1554</v>
@@ -10315,10 +10336,10 @@
         <v>915</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>916</v>
@@ -10349,10 +10370,10 @@
         <v>828</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>833</v>
@@ -10383,10 +10404,10 @@
         <v>1565</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>840</v>
@@ -10417,10 +10438,10 @@
         <v>1563</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>1548</v>
@@ -10451,10 +10472,10 @@
         <v>1563</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>1548</v>
@@ -10483,10 +10504,10 @@
         <v>851</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>854</v>
@@ -10517,10 +10538,10 @@
         <v>851</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>854</v>
@@ -10549,10 +10570,10 @@
         <v>820</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>289</v>
+        <v>1830</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>822</v>
@@ -10584,10 +10605,10 @@
         <v>Education à l'environnement, au développement durable et au bilinguisme</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>597</v>
@@ -10629,10 +10650,10 @@
         <v>Formaports</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>602</v>
@@ -10667,10 +10688,10 @@
         <v>420</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>551</v>
@@ -10705,10 +10726,10 @@
         <v>107</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>71</v>
@@ -10743,10 +10764,10 @@
         <v>107</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>71</v>
@@ -10777,10 +10798,10 @@
         <v>107</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>71</v>
@@ -10811,10 +10832,10 @@
         <v>107</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>71</v>
@@ -10845,10 +10866,10 @@
         <v>418</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>958</v>
@@ -10883,10 +10904,10 @@
         <v>438</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>625</v>
@@ -10921,10 +10942,10 @@
         <v>438</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>625</v>
@@ -10957,10 +10978,10 @@
         <v>438</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>625</v>
@@ -10993,10 +11014,10 @@
         <v>438</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>625</v>
@@ -11029,10 +11050,10 @@
         <v>438</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>625</v>
@@ -11063,10 +11084,10 @@
         <v>438</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>625</v>
@@ -11097,10 +11118,10 @@
         <v>438</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>625</v>
@@ -11133,10 +11154,10 @@
         <v>438</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>625</v>
@@ -11169,10 +11190,10 @@
         <v>438</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>625</v>
@@ -11205,10 +11226,10 @@
         <v>438</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>625</v>
@@ -11241,10 +11262,10 @@
         <v>438</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>625</v>
@@ -11275,10 +11296,10 @@
         <v>438</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>625</v>
@@ -11309,10 +11330,10 @@
         <v>438</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>625</v>
@@ -11345,10 +11366,10 @@
         <v>8</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>9</v>
@@ -11383,10 +11404,10 @@
         <v>337</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>593</v>
@@ -11427,10 +11448,10 @@
         <v>146</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>147</v>
@@ -11466,10 +11487,10 @@
         <v>Tourval Formation</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>605</v>
@@ -11511,10 +11532,10 @@
         <v>Tourval Formation</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>605</v>
@@ -11554,10 +11575,10 @@
         <v>Tourval Formation</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>1086</v>
@@ -11592,10 +11613,10 @@
         <v>1397</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>891</v>
@@ -11626,10 +11647,10 @@
         <v>1567</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>920</v>
@@ -11660,10 +11681,10 @@
         <v>1567</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>920</v>
@@ -11692,10 +11713,10 @@
         <v>1567</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>920</v>
@@ -11724,10 +11745,10 @@
         <v>1567</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>920</v>
@@ -11756,10 +11777,10 @@
         <v>928</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>1553</v>
@@ -11790,10 +11811,10 @@
         <v>816</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>1546</v>
@@ -11824,10 +11845,10 @@
         <v>1429</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>1430</v>
@@ -11858,10 +11879,10 @@
         <v>1532</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>1484</v>
@@ -11892,10 +11913,10 @@
         <v>1532</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>1484</v>
@@ -11924,10 +11945,10 @@
         <v>896</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>1533</v>
@@ -11958,10 +11979,10 @@
         <v>1395</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>866</v>
@@ -11992,10 +12013,10 @@
         <v>878</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>1551</v>
@@ -12026,10 +12047,10 @@
         <v>1505</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>1506</v>
@@ -12060,10 +12081,10 @@
         <v>1505</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>1506</v>
@@ -12092,10 +12113,10 @@
         <v>1505</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>291</v>
+        <v>1829</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>1506</v>
@@ -12124,10 +12145,10 @@
         <v>74</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>75</v>
@@ -12168,10 +12189,10 @@
         <v>1012</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>627</v>
@@ -12206,10 +12227,10 @@
         <v>1012</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>627</v>
@@ -12242,10 +12263,10 @@
         <v>1012</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>627</v>
@@ -12278,10 +12299,10 @@
         <v>1570</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>81</v>
@@ -12316,10 +12337,10 @@
         <v>1570</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>81</v>
@@ -12352,10 +12373,10 @@
         <v>86</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>87</v>
@@ -12390,10 +12411,10 @@
         <v>41</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F162" s="7" t="s">
         <v>42</v>
@@ -12428,10 +12449,10 @@
         <v>41</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>42</v>
@@ -12465,10 +12486,10 @@
         <v>Duraports</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>1088</v>
@@ -12506,10 +12527,10 @@
         <v>Duraports</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>1088</v>
@@ -12548,10 +12569,10 @@
         <v>68</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>69</v>
@@ -12586,10 +12607,10 @@
         <v>68</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>69</v>
@@ -12620,10 +12641,10 @@
         <v>97</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F168" s="7"/>
       <c r="G168" s="7" t="s">
@@ -12656,10 +12677,10 @@
         <v>1009</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>1087</v>
@@ -12694,10 +12715,10 @@
         <v>307</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>555</v>
@@ -12738,10 +12759,10 @@
         <v>307</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>555</v>
@@ -12780,10 +12801,10 @@
         <v>307</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>555</v>
@@ -12818,10 +12839,10 @@
         <v>307</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>555</v>
@@ -12856,10 +12877,10 @@
         <v>101</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>104</v>
@@ -12894,10 +12915,10 @@
         <v>101</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>104</v>
@@ -12931,10 +12952,10 @@
         <v>Inventaire biologique généralisé</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F176" s="7" t="s">
         <v>540</v>
@@ -12975,10 +12996,10 @@
         <v>303</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F177" s="7" t="s">
         <v>1001</v>
@@ -13017,10 +13038,10 @@
         <v>118</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>120</v>
@@ -13055,10 +13076,10 @@
         <v>118</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>120</v>
@@ -13087,10 +13108,10 @@
         <v>1007</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>575</v>
@@ -13125,10 +13146,10 @@
         <v>121</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>122</v>
@@ -13162,10 +13183,10 @@
         <v>Plan de coordination et de communication</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>612</v>
@@ -13207,10 +13228,10 @@
         <v>Planification et gestion du territoire</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>594</v>
@@ -13252,10 +13273,10 @@
         <v>Planification et gestion du territoire</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>594</v>
@@ -13289,10 +13310,10 @@
         <v>Planification et gestion du territoire</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F185" s="7" t="s">
         <v>594</v>
@@ -13328,10 +13349,10 @@
         <v>Planification et gestion du territoire</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>594</v>
@@ -13366,10 +13387,10 @@
         <v>1011</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>580</v>
@@ -13404,10 +13425,10 @@
         <v>1011</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>580</v>
@@ -13440,10 +13461,10 @@
         <v>406</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>626</v>
@@ -13478,10 +13499,10 @@
         <v>406</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>626</v>
@@ -13512,10 +13533,10 @@
         <v>406</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>626</v>
@@ -13546,10 +13567,10 @@
         <v>304</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F192" s="7" t="s">
         <v>549</v>
@@ -13584,10 +13605,10 @@
         <v>52</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F193" s="7" t="s">
         <v>54</v>
@@ -13622,10 +13643,10 @@
         <v>128</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F194" s="7" t="s">
         <v>4</v>
@@ -13661,10 +13682,10 @@
         <v>Risorsa Monviso</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F195" s="7" t="s">
         <v>1089</v>
@@ -13704,10 +13725,10 @@
         <v>Risorsa Monviso</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F196" s="7" t="s">
         <v>1089</v>
@@ -13740,10 +13761,10 @@
         <v>311</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F197" s="7" t="s">
         <v>561</v>
@@ -13778,10 +13799,10 @@
         <v>59</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F198" s="7" t="s">
         <v>60</v>
@@ -13816,10 +13837,10 @@
         <v>27</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F199" s="7" t="s">
         <v>29</v>
@@ -13854,10 +13875,10 @@
         <v>33</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>34</v>
@@ -13893,10 +13914,10 @@
         <v>Valorisation des ressources forestières</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F201" s="7" t="s">
         <v>615</v>
@@ -13932,10 +13953,10 @@
         <v>Valorisation des ressources forestières</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>615</v>
@@ -13975,10 +13996,10 @@
         <v>Valorisation des ressources forestières</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F203" s="7" t="s">
         <v>615</v>
@@ -14010,10 +14031,10 @@
         <v>Valorisation des ressources forestières</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F204" s="7" t="s">
         <v>615</v>
@@ -14045,10 +14066,10 @@
         <v>Valorisation des ressources forestières</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F205" s="7" t="s">
         <v>615</v>
@@ -14082,10 +14103,10 @@
         <v>Valorisation des ressources forestières</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F206" s="7" t="s">
         <v>615</v>
@@ -14117,10 +14138,10 @@
         <v>Valorisation des ressources forestières</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F207" s="7" t="s">
         <v>615</v>
@@ -14152,10 +14173,10 @@
         <v>Village éducatif dédié au développement durable</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>617</v>
@@ -14197,10 +14218,10 @@
         <v>Village éducatif dédié au développement durable</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>617</v>
@@ -14236,10 +14257,10 @@
         <v>Village éducatif dédié au développement durable</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F210" s="7" t="s">
         <v>617</v>
@@ -14275,10 +14296,10 @@
         <v>Village éducatif dédié au développement durable</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F211" s="7" t="s">
         <v>617</v>
@@ -14318,10 +14339,10 @@
         <v>Village éducatif dédié au développement durable</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>617</v>
@@ -14361,10 +14382,10 @@
         <v>Village éducatif dédié au développement durable</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>617</v>
@@ -14400,10 +14421,10 @@
         <v>Village éducatif dédié au développement durable</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F214" s="7" t="s">
         <v>617</v>
@@ -14439,10 +14460,10 @@
         <v>Village éducatif dédié au développement durable</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F215" s="7" t="s">
         <v>617</v>
@@ -14477,10 +14498,10 @@
         <v>931</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>1539</v>
@@ -14511,10 +14532,10 @@
         <v>931</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F217" s="7" t="s">
         <v>1539</v>
@@ -14543,10 +14564,10 @@
         <v>883</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F218" s="7" t="s">
         <v>884</v>
@@ -14577,10 +14598,10 @@
         <v>883</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F219" s="7" t="s">
         <v>884</v>
@@ -14609,10 +14630,10 @@
         <v>947</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F220" s="7" t="s">
         <v>948</v>
@@ -14643,10 +14664,10 @@
         <v>940</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>942</v>
@@ -14677,10 +14698,10 @@
         <v>940</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F222" s="7" t="s">
         <v>942</v>
@@ -14711,10 +14732,10 @@
         <v>1525</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F223" s="7" t="s">
         <v>1544</v>
@@ -14745,10 +14766,10 @@
         <v>944</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F224" s="7" t="s">
         <v>946</v>
@@ -14779,10 +14800,10 @@
         <v>1414</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F225" s="7" t="s">
         <v>1415</v>
@@ -14813,10 +14834,10 @@
         <v>867</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F226" s="7" t="s">
         <v>868</v>
@@ -14847,10 +14868,10 @@
         <v>913</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F227" s="7" t="s">
         <v>914</v>
@@ -14881,10 +14902,10 @@
         <v>881</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F228" s="7" t="s">
         <v>882</v>
@@ -14919,10 +14940,10 @@
         <v>1455</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F229" s="7" t="s">
         <v>1555</v>
@@ -14953,10 +14974,10 @@
         <v>1455</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F230" s="7" t="s">
         <v>1456</v>
@@ -14985,10 +15006,10 @@
         <v>924</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F231" s="7" t="s">
         <v>925</v>
@@ -15019,10 +15040,10 @@
         <v>924</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F232" s="7" t="s">
         <v>925</v>
@@ -15051,10 +15072,10 @@
         <v>1453</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F233" s="7" t="s">
         <v>1454</v>
@@ -15085,10 +15106,10 @@
         <v>1453</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>156</v>
+        <v>1831</v>
       </c>
       <c r="F234" s="7" t="s">
         <v>1454</v>
@@ -15117,10 +15138,10 @@
         <v>332</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F235" s="7" t="s">
         <v>1018</v>
@@ -15161,10 +15182,10 @@
         <v>332</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F236" s="7" t="s">
         <v>586</v>
@@ -15197,10 +15218,10 @@
         <v>332</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F237" s="7" t="s">
         <v>586</v>
@@ -15233,10 +15254,10 @@
         <v>434</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F238" s="7" t="s">
         <v>637</v>
@@ -15271,10 +15292,10 @@
         <v>434</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F239" s="7" t="s">
         <v>637</v>
@@ -15305,10 +15326,10 @@
         <v>434</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F240" s="7" t="s">
         <v>637</v>
@@ -15347,10 +15368,10 @@
         <v>434</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F241" s="7" t="s">
         <v>637</v>
@@ -15381,10 +15402,10 @@
         <v>434</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F242" s="7" t="s">
         <v>637</v>
@@ -15415,10 +15436,10 @@
         <v>434</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>637</v>
@@ -15449,10 +15470,10 @@
         <v>423</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F244" s="7" t="s">
         <v>554</v>
@@ -15493,10 +15514,10 @@
         <v>423</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F245" s="7" t="s">
         <v>554</v>
@@ -15535,10 +15556,10 @@
         <v>423</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F246" s="7" t="s">
         <v>554</v>
@@ -15577,10 +15598,10 @@
         <v>317</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F247" s="7" t="s">
         <v>569</v>
@@ -15615,10 +15636,10 @@
         <v>630</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F248" s="7" t="s">
         <v>629</v>
@@ -15653,10 +15674,10 @@
         <v>630</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F249" s="7" t="s">
         <v>629</v>
@@ -15687,10 +15708,10 @@
         <v>299</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F250" s="7" t="s">
         <v>544</v>
@@ -15725,10 +15746,10 @@
         <v>299</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F251" s="7" t="s">
         <v>544</v>
@@ -15761,10 +15782,10 @@
         <v>299</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E252" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F252" s="7" t="s">
         <v>544</v>
@@ -15797,10 +15818,10 @@
         <v>299</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E253" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F253" s="7" t="s">
         <v>544</v>
@@ -15833,10 +15854,10 @@
         <v>321</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F254" s="7" t="s">
         <v>574</v>
@@ -15871,10 +15892,10 @@
         <v>55</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E255" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F255" s="7" t="s">
         <v>57</v>
@@ -15909,10 +15930,10 @@
         <v>1008</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F256" s="7" t="s">
         <v>578</v>
@@ -15947,10 +15968,10 @@
         <v>1008</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F257" s="7" t="s">
         <v>578</v>
@@ -15983,10 +16004,10 @@
         <v>1008</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E258" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F258" s="7" t="s">
         <v>578</v>
@@ -16017,10 +16038,10 @@
         <v>1008</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E259" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F259" s="7" t="s">
         <v>578</v>
@@ -16053,10 +16074,10 @@
         <v>1008</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F260" s="7" t="s">
         <v>578</v>
@@ -16089,10 +16110,10 @@
         <v>1002</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F261" s="7" t="s">
         <v>1549</v>
@@ -16123,10 +16144,10 @@
         <v>1432</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E262" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F262" s="7" t="s">
         <v>1433</v>
@@ -16157,10 +16178,10 @@
         <v>1432</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F263" s="7" t="s">
         <v>1433</v>
@@ -16189,10 +16210,10 @@
         <v>1512</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F264" s="7" t="s">
         <v>1513</v>
@@ -16223,10 +16244,10 @@
         <v>1512</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F265" s="7" t="s">
         <v>1513</v>
@@ -16255,10 +16276,10 @@
         <v>1512</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F266" s="7" t="s">
         <v>1513</v>
@@ -16287,10 +16308,10 @@
         <v>1512</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F267" s="7" t="s">
         <v>1513</v>
@@ -16319,10 +16340,10 @@
         <v>1512</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>290</v>
+        <v>1832</v>
       </c>
       <c r="F268" s="7" t="s">
         <v>1513</v>
@@ -16351,10 +16372,10 @@
         <v>94</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F269" s="7" t="s">
         <v>95</v>
@@ -16389,10 +16410,10 @@
         <v>94</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F270" s="7" t="s">
         <v>95</v>
@@ -16425,10 +16446,10 @@
         <v>94</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F271" s="7" t="s">
         <v>95</v>
@@ -16461,10 +16482,10 @@
         <v>955</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F272" s="7" t="s">
         <v>957</v>
@@ -16499,10 +16520,10 @@
         <v>427</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F273" s="7" t="s">
         <v>558</v>
@@ -16533,10 +16554,10 @@
         <v>330</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F274" s="7" t="s">
         <v>583</v>
@@ -16571,10 +16592,10 @@
         <v>98</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F275" s="7" t="s">
         <v>99</v>
@@ -16609,10 +16630,10 @@
         <v>98</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E276" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F276" s="7" t="s">
         <v>99</v>
@@ -16645,10 +16666,10 @@
         <v>566</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F277" s="7" t="s">
         <v>560</v>
@@ -16679,10 +16700,10 @@
         <v>566</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F278" s="7" t="s">
         <v>560</v>
@@ -16713,10 +16734,10 @@
         <v>315</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F279" s="7" t="s">
         <v>565</v>
@@ -16751,10 +16772,10 @@
         <v>315</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F280" s="7" t="s">
         <v>565</v>
@@ -16787,10 +16808,10 @@
         <v>315</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E281" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F281" s="7" t="s">
         <v>565</v>
@@ -16823,10 +16844,10 @@
         <v>315</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F282" s="7" t="s">
         <v>565</v>
@@ -16857,10 +16878,10 @@
         <v>432</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F283" s="7" t="s">
         <v>581</v>
@@ -16895,10 +16916,10 @@
         <v>319</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F284" s="7" t="s">
         <v>572</v>
@@ -16933,10 +16954,10 @@
         <v>319</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F285" s="7" t="s">
         <v>572</v>
@@ -16969,10 +16990,10 @@
         <v>319</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F286" s="7" t="s">
         <v>572</v>
@@ -17009,10 +17030,10 @@
         <v>125</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F287" s="7" t="s">
         <v>129</v>
@@ -17047,10 +17068,10 @@
         <v>425</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F288" s="7" t="s">
         <v>557</v>
@@ -17085,10 +17106,10 @@
         <v>425</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F289" s="7" t="s">
         <v>557</v>
@@ -17119,10 +17140,10 @@
         <v>402</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F290" s="7" t="s">
         <v>624</v>
@@ -17157,10 +17178,10 @@
         <v>402</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F291" s="7" t="s">
         <v>624</v>
@@ -17191,10 +17212,10 @@
         <v>402</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F292" s="7" t="s">
         <v>624</v>
@@ -17225,10 +17246,10 @@
         <v>402</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F293" s="7" t="s">
         <v>624</v>
@@ -17261,10 +17282,10 @@
         <v>402</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F294" s="7" t="s">
         <v>624</v>
@@ -17297,10 +17318,10 @@
         <v>402</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F295" s="7" t="s">
         <v>624</v>
@@ -17331,10 +17352,10 @@
         <v>127</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F296" s="7" t="s">
         <v>131</v>
@@ -17369,10 +17390,10 @@
         <v>127</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F297" s="7" t="s">
         <v>131</v>
@@ -17405,10 +17426,10 @@
         <v>127</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F298" s="7" t="s">
         <v>131</v>
@@ -17437,10 +17458,10 @@
         <v>127</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F299" s="7" t="s">
         <v>131</v>
@@ -17473,10 +17494,10 @@
         <v>127</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F300" s="7" t="s">
         <v>131</v>
@@ -17505,10 +17526,10 @@
         <v>1409</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E301" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F301" s="7" t="s">
         <v>1542</v>
@@ -17539,10 +17560,10 @@
         <v>1409</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F302" s="7" t="s">
         <v>1542</v>
@@ -17571,10 +17592,10 @@
         <v>1409</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F303" s="7" t="s">
         <v>1542</v>
@@ -17603,10 +17624,10 @@
         <v>1396</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F304" s="7" t="s">
         <v>870</v>
@@ -17635,10 +17656,10 @@
         <v>1396</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F305" s="7" t="s">
         <v>870</v>
@@ -17667,10 +17688,10 @@
         <v>1404</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E306" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F306" s="7" t="s">
         <v>1541</v>
@@ -17701,10 +17722,10 @@
         <v>1404</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E307" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F307" s="7" t="s">
         <v>1541</v>
@@ -17733,10 +17754,10 @@
         <v>937</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E308" s="7" t="s">
-        <v>286</v>
+        <v>1831</v>
       </c>
       <c r="F308" s="7" t="s">
         <v>938</v>
@@ -17767,10 +17788,10 @@
         <v>334</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F309" s="7" t="s">
         <v>1091</v>
@@ -17805,10 +17826,10 @@
         <v>1003</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F310" s="7" t="s">
         <v>562</v>
@@ -17845,10 +17866,10 @@
         <v>333</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F311" s="7" t="s">
         <v>587</v>
@@ -17883,10 +17904,10 @@
         <v>333</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E312" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F312" s="7" t="s">
         <v>587</v>
@@ -17919,10 +17940,10 @@
         <v>90</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F313" s="7" t="s">
         <v>91</v>
@@ -17957,10 +17978,10 @@
         <v>1569</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F314" s="7" t="s">
         <v>582</v>
@@ -17997,10 +18018,10 @@
         <v>309</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F315" s="7" t="s">
         <v>559</v>
@@ -18035,10 +18056,10 @@
         <v>309</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E316" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F316" s="7" t="s">
         <v>559</v>
@@ -18077,10 +18098,10 @@
         <v>309</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E317" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F317" s="7" t="s">
         <v>559</v>
@@ -18113,10 +18134,10 @@
         <v>309</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E318" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F318" s="7" t="s">
         <v>559</v>
@@ -18149,10 +18170,10 @@
         <v>44</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E319" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F319" s="7" t="s">
         <v>45</v>
@@ -18187,10 +18208,10 @@
         <v>1010</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F320" s="7" t="s">
         <v>579</v>
@@ -18225,10 +18246,10 @@
         <v>1010</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E321" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F321" s="7" t="s">
         <v>579</v>
@@ -18261,10 +18282,10 @@
         <v>1010</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F322" s="7" t="s">
         <v>579</v>
@@ -18297,10 +18318,10 @@
         <v>1010</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E323" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F323" s="7" t="s">
         <v>579</v>
@@ -18331,10 +18352,10 @@
         <v>1010</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E324" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F324" s="7" t="s">
         <v>579</v>
@@ -18367,10 +18388,10 @@
         <v>567</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E325" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F325" s="7" t="s">
         <v>568</v>
@@ -18405,10 +18426,10 @@
         <v>136</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E326" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F326" s="7" t="s">
         <v>142</v>
@@ -18443,10 +18464,10 @@
         <v>1004</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F327" s="7" t="s">
         <v>563</v>
@@ -18481,10 +18502,10 @@
         <v>1439</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F328" s="7" t="s">
         <v>1440</v>
@@ -18515,10 +18536,10 @@
         <v>950</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E329" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F329" s="7" t="s">
         <v>1556</v>
@@ -18549,10 +18570,10 @@
         <v>1398</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E330" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F330" s="7" t="s">
         <v>933</v>
@@ -18583,10 +18604,10 @@
         <v>902</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E331" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F331" s="7" t="s">
         <v>903</v>
@@ -18617,10 +18638,10 @@
         <v>1566</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E332" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F332" s="7" t="s">
         <v>847</v>
@@ -18651,10 +18672,10 @@
         <v>1566</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F333" s="7" t="s">
         <v>847</v>
@@ -18683,10 +18704,10 @@
         <v>1566</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F334" s="7" t="s">
         <v>847</v>
@@ -18715,10 +18736,10 @@
         <v>1406</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E335" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F335" s="7" t="s">
         <v>1407</v>
@@ -18749,10 +18770,10 @@
         <v>952</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E336" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F336" s="7" t="s">
         <v>1540</v>
@@ -18783,10 +18804,10 @@
         <v>1561</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E337" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F337" s="7" t="s">
         <v>811</v>
@@ -18817,10 +18838,10 @@
         <v>814</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E338" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F338" s="7" t="s">
         <v>1535</v>
@@ -18851,10 +18872,10 @@
         <v>814</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E339" s="7" t="s">
-        <v>288</v>
+        <v>1833</v>
       </c>
       <c r="F339" s="7" t="s">
         <v>1535</v>
@@ -18883,10 +18904,10 @@
         <v>1399</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E340" s="7" t="s">
-        <v>287</v>
+        <v>1834</v>
       </c>
       <c r="F340" s="7" t="s">
         <v>936</v>
@@ -18917,10 +18938,10 @@
         <v>1399</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E341" s="7" t="s">
-        <v>287</v>
+        <v>1834</v>
       </c>
       <c r="F341" s="7" t="s">
         <v>936</v>
@@ -18949,10 +18970,10 @@
         <v>1522</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E342" s="7" t="s">
-        <v>287</v>
+        <v>1834</v>
       </c>
       <c r="F342" s="7" t="s">
         <v>1523</v>
@@ -18983,10 +19004,10 @@
         <v>1501</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E343" s="7" t="s">
-        <v>287</v>
+        <v>1834</v>
       </c>
       <c r="F343" s="7" t="s">
         <v>1502</v>
@@ -19016,10 +19037,10 @@
         <v>Cyclo-territorio</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E344" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F344" s="7" t="s">
         <v>623</v>
@@ -19054,10 +19075,10 @@
         <v>576</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E345" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F345" s="7" t="s">
         <v>577</v>
@@ -19093,10 +19114,10 @@
         <v>Géoparc</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E346" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F346" s="7" t="s">
         <v>614</v>
@@ -19138,10 +19159,10 @@
         <v>Géoparc</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E347" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F347" s="7" t="s">
         <v>614</v>
@@ -19181,10 +19202,10 @@
         <v>Géoparc</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E348" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F348" s="7" t="s">
         <v>614</v>
@@ -19224,10 +19245,10 @@
         <v>Géoparc</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E349" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F349" s="7" t="s">
         <v>614</v>
@@ -19267,10 +19288,10 @@
         <v>Géoparc</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E350" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F350" s="7" t="s">
         <v>614</v>
@@ -19306,10 +19327,10 @@
         <v>Géoparc</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E351" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F351" s="7" t="s">
         <v>614</v>
@@ -19349,10 +19370,10 @@
         <v>Grand Tour marittime-mercantour</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E352" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F352" s="7" t="s">
         <v>595</v>
@@ -19394,10 +19415,10 @@
         <v>Grand Tour marittime-mercantour</v>
       </c>
       <c r="D353" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E353" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F353" s="7" t="s">
         <v>595</v>
@@ -19437,10 +19458,10 @@
         <v>Itinérance des grands espaces par les activités de pleine nature</v>
       </c>
       <c r="D354" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E354" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F354" s="7" t="s">
         <v>608</v>
@@ -19476,10 +19497,10 @@
         <v>Itinérance des grands espaces par les activités de pleine nature</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E355" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F355" s="7" t="s">
         <v>608</v>
@@ -19513,10 +19534,10 @@
         <v>Itinérance des grands espaces par les activités de pleine nature</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E356" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F356" s="7" t="s">
         <v>608</v>
@@ -19550,10 +19571,10 @@
         <v>Itinérance des grands espaces par les activités de pleine nature</v>
       </c>
       <c r="D357" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E357" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F357" s="7" t="s">
         <v>608</v>
@@ -19587,10 +19608,10 @@
         <v>Itinérance des grands espaces par les activités de pleine nature</v>
       </c>
       <c r="D358" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E358" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F358" s="7" t="s">
         <v>608</v>
@@ -19624,10 +19645,10 @@
         <v>Itinérance des grands espaces par les activités de pleine nature</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E359" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F359" s="7" t="s">
         <v>608</v>
@@ -19661,10 +19682,10 @@
         <v>Itinérance des grands espaces par les activités de pleine nature</v>
       </c>
       <c r="D360" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E360" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F360" s="7" t="s">
         <v>608</v>
@@ -19698,10 +19719,10 @@
         <v>Itinérance des grands espaces par les activités de pleine nature</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E361" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F361" s="7" t="s">
         <v>608</v>
@@ -19735,10 +19756,10 @@
         <v>Itinérance des grands espaces par les activités de pleine nature</v>
       </c>
       <c r="D362" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E362" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F362" s="7" t="s">
         <v>608</v>
@@ -19772,10 +19793,10 @@
         <v>Itinérance des grands espaces par les activités de pleine nature</v>
       </c>
       <c r="D363" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E363" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F363" s="7" t="s">
         <v>608</v>
@@ -19809,10 +19830,10 @@
         <v>Itinérance des grands espaces par les activités de pleine nature</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E364" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F364" s="7" t="s">
         <v>608</v>
@@ -19845,10 +19866,10 @@
         <v>108</v>
       </c>
       <c r="D365" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F365" s="7" t="s">
         <v>111</v>
@@ -19883,10 +19904,10 @@
         <v>108</v>
       </c>
       <c r="D366" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E366" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F366" s="7" t="s">
         <v>111</v>
@@ -19919,10 +19940,10 @@
         <v>108</v>
       </c>
       <c r="D367" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E367" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F367" s="7" t="s">
         <v>111</v>
@@ -19955,10 +19976,10 @@
         <v>108</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E368" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F368" s="7" t="s">
         <v>111</v>
@@ -19991,10 +20012,10 @@
         <v>109</v>
       </c>
       <c r="D369" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E369" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F369" s="7" t="s">
         <v>113</v>
@@ -20030,10 +20051,10 @@
         <v>Plan de coordination et de communication</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E370" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F370" s="7" t="s">
         <v>598</v>
@@ -20069,10 +20090,10 @@
         <v>Plan de coordination et de communication</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E371" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F371" s="7" t="s">
         <v>618</v>
@@ -20107,10 +20128,10 @@
         <v>301</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E372" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F372" s="7" t="s">
         <v>959</v>
@@ -20151,10 +20172,10 @@
         <v>297</v>
       </c>
       <c r="D373" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E373" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F373" s="7" t="s">
         <v>444</v>
@@ -20196,10 +20217,10 @@
         <v>Promotion de la destination "Nouveau territoire d'itinérance"</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E374" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F374" s="7" t="s">
         <v>611</v>
@@ -20241,10 +20262,10 @@
         <v>Resaports</v>
       </c>
       <c r="D375" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E375" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F375" s="7" t="s">
         <v>599</v>
@@ -20286,10 +20307,10 @@
         <v>Resaports</v>
       </c>
       <c r="D376" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E376" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F376" s="7" t="s">
         <v>599</v>
@@ -20328,10 +20349,10 @@
         <v>63</v>
       </c>
       <c r="D377" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E377" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F377" s="7" t="s">
         <v>64</v>
@@ -20366,10 +20387,10 @@
         <v>302</v>
       </c>
       <c r="D378" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E378" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F378" s="7" t="s">
         <v>956</v>
@@ -20405,10 +20426,10 @@
         <v>SlowTourisme</v>
       </c>
       <c r="D379" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E379" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F379" s="7" t="s">
         <v>619</v>
@@ -20443,10 +20464,10 @@
         <v>410</v>
       </c>
       <c r="D380" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E380" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F380" s="7" t="s">
         <v>628</v>
@@ -20481,10 +20502,10 @@
         <v>410</v>
       </c>
       <c r="D381" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E381" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F381" s="7" t="s">
         <v>628</v>
@@ -20517,10 +20538,10 @@
         <v>410</v>
       </c>
       <c r="D382" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E382" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F382" s="7" t="s">
         <v>628</v>
@@ -20551,10 +20572,10 @@
         <v>410</v>
       </c>
       <c r="D383" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E383" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F383" s="7" t="s">
         <v>628</v>
@@ -20586,10 +20607,10 @@
         <v>Valorisation et diversification de l'offre touristique transfrontalière</v>
       </c>
       <c r="D384" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E384" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F384" s="7" t="s">
         <v>600</v>
@@ -20624,10 +20645,10 @@
         <v>134</v>
       </c>
       <c r="D385" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E385" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F385" s="7" t="s">
         <v>152</v>
@@ -20662,10 +20683,10 @@
         <v>134</v>
       </c>
       <c r="D386" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E386" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F386" s="7" t="s">
         <v>152</v>
@@ -20698,10 +20719,10 @@
         <v>12</v>
       </c>
       <c r="D387" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E387" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F387" s="7" t="s">
         <v>13</v>
@@ -20736,10 +20757,10 @@
         <v>1418</v>
       </c>
       <c r="D388" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E388" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F388" s="7" t="s">
         <v>1419</v>
@@ -20770,10 +20791,10 @@
         <v>1466</v>
       </c>
       <c r="D389" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E389" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F389" s="7" t="s">
         <v>1467</v>
@@ -20804,10 +20825,10 @@
         <v>1425</v>
       </c>
       <c r="D390" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E390" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F390" s="7" t="s">
         <v>1426</v>
@@ -20838,10 +20859,10 @@
         <v>818</v>
       </c>
       <c r="D391" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E391" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F391" s="7" t="s">
         <v>1547</v>
@@ -20876,10 +20897,10 @@
         <v>1524</v>
       </c>
       <c r="D392" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E392" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F392" s="7" t="s">
         <v>1559</v>
@@ -20910,10 +20931,10 @@
         <v>905</v>
       </c>
       <c r="D393" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E393" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F393" s="7" t="s">
         <v>1552</v>
@@ -20944,10 +20965,10 @@
         <v>905</v>
       </c>
       <c r="D394" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E394" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F394" s="7" t="s">
         <v>1552</v>
@@ -20976,10 +20997,10 @@
         <v>905</v>
       </c>
       <c r="D395" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E395" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F395" s="7" t="s">
         <v>1552</v>
@@ -21008,10 +21029,10 @@
         <v>908</v>
       </c>
       <c r="D396" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E396" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F396" s="7" t="s">
         <v>909</v>
@@ -21042,10 +21063,10 @@
         <v>910</v>
       </c>
       <c r="D397" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E397" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F397" s="7" t="s">
         <v>912</v>
@@ -21076,10 +21097,10 @@
         <v>1519</v>
       </c>
       <c r="D398" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E398" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F398" s="7" t="s">
         <v>1520</v>
@@ -21110,10 +21131,10 @@
         <v>1458</v>
       </c>
       <c r="D399" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E399" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F399" s="7" t="s">
         <v>1459</v>
@@ -21144,10 +21165,10 @@
         <v>1562</v>
       </c>
       <c r="D400" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E400" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F400" s="7" t="s">
         <v>1545</v>
@@ -21182,10 +21203,10 @@
         <v>1443</v>
       </c>
       <c r="D401" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E401" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F401" s="7" t="s">
         <v>1444</v>
@@ -21216,10 +21237,10 @@
         <v>1443</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E402" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F402" s="7" t="s">
         <v>1444</v>
@@ -21248,10 +21269,10 @@
         <v>1443</v>
       </c>
       <c r="D403" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E403" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F403" s="7" t="s">
         <v>1444</v>
@@ -21280,10 +21301,10 @@
         <v>848</v>
       </c>
       <c r="D404" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E404" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F404" s="7" t="s">
         <v>849</v>
@@ -21314,10 +21335,10 @@
         <v>848</v>
       </c>
       <c r="D405" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E405" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F405" s="7" t="s">
         <v>849</v>
@@ -21348,10 +21369,10 @@
         <v>1503</v>
       </c>
       <c r="D406" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E406" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F406" s="7" t="s">
         <v>1558</v>
@@ -21382,10 +21403,10 @@
         <v>1449</v>
       </c>
       <c r="D407" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E407" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F407" s="7" t="s">
         <v>1450</v>
@@ -21416,10 +21437,10 @@
         <v>1449</v>
       </c>
       <c r="D408" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E408" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F408" s="7" t="s">
         <v>1450</v>
@@ -21448,10 +21469,10 @@
         <v>1460</v>
       </c>
       <c r="D409" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E409" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F409" s="7" t="s">
         <v>1461</v>
@@ -21482,10 +21503,10 @@
         <v>1460</v>
       </c>
       <c r="D410" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E410" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F410" s="7" t="s">
         <v>1461</v>
@@ -21514,10 +21535,10 @@
         <v>1460</v>
       </c>
       <c r="D411" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E411" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F411" s="7" t="s">
         <v>1461</v>
@@ -21546,10 +21567,10 @@
         <v>1460</v>
       </c>
       <c r="D412" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E412" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F412" s="7" t="s">
         <v>1461</v>
@@ -21578,10 +21599,10 @@
         <v>1471</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E413" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F413" s="7" t="s">
         <v>1472</v>
@@ -21612,10 +21633,10 @@
         <v>1471</v>
       </c>
       <c r="D414" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E414" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F414" s="7" t="s">
         <v>1472</v>
@@ -21644,10 +21665,10 @@
         <v>1471</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E415" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F415" s="7" t="s">
         <v>1472</v>
@@ -21676,10 +21697,10 @@
         <v>1471</v>
       </c>
       <c r="D416" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E416" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F416" s="7" t="s">
         <v>1472</v>
@@ -21708,10 +21729,10 @@
         <v>1471</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E417" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F417" s="7" t="s">
         <v>1472</v>
@@ -21740,10 +21761,10 @@
         <v>1471</v>
       </c>
       <c r="D418" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E418" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F418" s="7" t="s">
         <v>1472</v>
@@ -21772,10 +21793,10 @@
         <v>1471</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E419" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F419" s="7" t="s">
         <v>1472</v>
@@ -21804,10 +21825,10 @@
         <v>1471</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E420" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F420" s="7" t="s">
         <v>1472</v>
@@ -21836,10 +21857,10 @@
         <v>1471</v>
       </c>
       <c r="D421" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E421" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F421" s="7" t="s">
         <v>1472</v>
@@ -21868,10 +21889,10 @@
         <v>1471</v>
       </c>
       <c r="D422" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E422" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F422" s="7" t="s">
         <v>1472</v>
@@ -21900,10 +21921,10 @@
         <v>1471</v>
       </c>
       <c r="D423" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E423" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F423" s="7" t="s">
         <v>1472</v>
@@ -21932,10 +21953,10 @@
         <v>1471</v>
       </c>
       <c r="D424" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E424" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F424" s="7" t="s">
         <v>1472</v>
@@ -21964,10 +21985,10 @@
         <v>1471</v>
       </c>
       <c r="D425" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E425" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F425" s="7" t="s">
         <v>1472</v>
@@ -21996,10 +22017,10 @@
         <v>1471</v>
       </c>
       <c r="D426" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E426" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F426" s="7" t="s">
         <v>1472</v>
@@ -22028,10 +22049,10 @@
         <v>1436</v>
       </c>
       <c r="D427" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E427" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F427" s="7" t="s">
         <v>1437</v>
@@ -22062,10 +22083,10 @@
         <v>1492</v>
       </c>
       <c r="D428" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E428" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F428" s="7" t="s">
         <v>1493</v>
@@ -22096,10 +22117,10 @@
         <v>1492</v>
       </c>
       <c r="D429" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E429" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F429" s="7" t="s">
         <v>1493</v>
@@ -22128,10 +22149,10 @@
         <v>1492</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E430" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F430" s="7" t="s">
         <v>1493</v>
@@ -22160,10 +22181,10 @@
         <v>1492</v>
       </c>
       <c r="D431" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E431" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F431" s="7" t="s">
         <v>1493</v>
@@ -22192,10 +22213,10 @@
         <v>949</v>
       </c>
       <c r="D432" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E432" s="7" t="s">
-        <v>148</v>
+        <v>1829</v>
       </c>
       <c r="F432" s="7" t="s">
         <v>1557</v>
@@ -22227,10 +22248,10 @@
         <v>Accessibilité au territoire et mobilité douce</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E433" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F433" s="7" t="s">
         <v>596</v>
@@ -22272,10 +22293,10 @@
         <v>Accessibilité au territoire et mobilité douce</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E434" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F434" s="7" t="s">
         <v>596</v>
@@ -22311,10 +22332,10 @@
         <v>Accessibilité au territoire et mobilité douce</v>
       </c>
       <c r="D435" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E435" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F435" s="7" t="s">
         <v>596</v>
@@ -22350,10 +22371,10 @@
         <v>Accessibilité au territoire et mobilité douce</v>
       </c>
       <c r="D436" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E436" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F436" s="7" t="s">
         <v>596</v>
@@ -22382,10 +22403,10 @@
         <v>138</v>
       </c>
       <c r="D437" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E437" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F437" s="7" t="s">
         <v>140</v>
@@ -22420,10 +22441,10 @@
         <v>588</v>
       </c>
       <c r="D438" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E438" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F438" s="7" t="s">
         <v>589</v>
@@ -22456,10 +22477,10 @@
         <v>588</v>
       </c>
       <c r="D439" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E439" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F439" s="7" t="s">
         <v>589</v>
@@ -22490,10 +22511,10 @@
         <v>308</v>
       </c>
       <c r="D440" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E440" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F440" s="7" t="s">
         <v>556</v>
@@ -22534,10 +22555,10 @@
         <v>1006</v>
       </c>
       <c r="D441" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E441" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F441" s="7" t="s">
         <v>573</v>
@@ -22572,10 +22593,10 @@
         <v>1006</v>
       </c>
       <c r="D442" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E442" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F442" s="7" t="s">
         <v>573</v>
@@ -22606,10 +22627,10 @@
         <v>539</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E443" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F443" s="7" t="s">
         <v>592</v>
@@ -22644,10 +22665,10 @@
         <v>539</v>
       </c>
       <c r="D444" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E444" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F444" s="7" t="s">
         <v>592</v>
@@ -22680,10 +22701,10 @@
         <v>436</v>
       </c>
       <c r="D445" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E445" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F445" s="7" t="s">
         <v>591</v>
@@ -22724,10 +22745,10 @@
         <v>436</v>
       </c>
       <c r="D446" s="7" t="s">
-        <v>284</v>
+        <v>1835</v>
       </c>
       <c r="E446" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F446" s="7" t="s">
         <v>591</v>
@@ -22758,10 +22779,10 @@
         <v>1477</v>
       </c>
       <c r="D447" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E447" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F447" s="7" t="s">
         <v>1478</v>
@@ -22792,10 +22813,10 @@
         <v>1498</v>
       </c>
       <c r="D448" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E448" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F448" s="7" t="s">
         <v>1499</v>
@@ -22826,10 +22847,10 @@
         <v>1422</v>
       </c>
       <c r="D449" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E449" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F449" s="7" t="s">
         <v>1423</v>
@@ -22860,10 +22881,10 @@
         <v>1469</v>
       </c>
       <c r="D450" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E450" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F450" s="7" t="s">
         <v>1470</v>
@@ -22892,10 +22913,10 @@
         <v>1500</v>
       </c>
       <c r="D451" s="7" t="s">
-        <v>285</v>
+        <v>1835</v>
       </c>
       <c r="E451" s="7" t="s">
-        <v>158</v>
+        <v>1834</v>
       </c>
       <c r="F451" s="7" t="s">
         <v>1560</v>
